--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/ARIZONA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/ARIZONA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1353"/>
+  <dimension ref="A1:D1347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C32">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C34">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C39">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C42">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C63">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C69">
@@ -1725,7 +1725,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C103">
@@ -1868,7 +1868,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C114">
@@ -1907,7 +1907,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C117">
@@ -2180,7 +2180,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C138">
@@ -2193,7 +2193,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C139">
@@ -2284,7 +2284,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C146">
@@ -2671,7 +2671,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C175">
@@ -2697,7 +2697,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2754,7 +2754,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C181">
@@ -2954,7 +2954,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C196">
@@ -3136,7 +3136,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C210">
@@ -3188,7 +3188,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C214">
@@ -3279,7 +3279,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C221">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C222">
@@ -3305,7 +3305,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C223">
@@ -3435,12 +3435,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C233">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C236">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C237">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C243">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C247">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C251">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C256">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C260">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C261">
@@ -3921,14 +3921,14 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C270">
         <v>13</v>
       </c>
       <c r="D270">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="271">
@@ -4025,7 +4025,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C278">
@@ -4051,7 +4051,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C280">
@@ -4168,7 +4168,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C289">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C296">
@@ -4337,7 +4337,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C302">
@@ -4350,7 +4350,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C303">
@@ -4363,7 +4363,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C304">
@@ -4376,7 +4376,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C305">
@@ -4435,7 +4435,7 @@
         <v>13</v>
       </c>
       <c r="D309">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="310">
@@ -4524,7 +4524,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C316">
@@ -4537,7 +4537,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C317">
@@ -4641,7 +4641,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C325">
@@ -4693,14 +4693,14 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C329">
         <v>13</v>
       </c>
       <c r="D329">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="330">
@@ -4797,7 +4797,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C337">
@@ -4849,7 +4849,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C341">
@@ -4875,7 +4875,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C343">
@@ -4901,7 +4901,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C345">
@@ -4914,7 +4914,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C346">
@@ -4927,7 +4927,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C347">
@@ -4992,7 +4992,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C352">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C357">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C359">
@@ -5121,13 +5121,13 @@
         <v>13</v>
       </c>
       <c r="D361">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C362">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C363">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C365">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C366">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C369">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C370">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C371">
@@ -5257,7 +5257,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C372">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C377">
@@ -5335,7 +5335,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C378">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C382">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C383">
@@ -5465,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C388">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C389">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C391">
@@ -5543,7 +5543,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C394">
@@ -5582,7 +5582,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C397">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C410">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C412">
@@ -5803,7 +5803,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C414">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C416">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C419">
@@ -5881,7 +5881,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C420">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C430">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C436">
@@ -6146,7 +6146,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C440">
@@ -6198,7 +6198,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C444">
@@ -6224,7 +6224,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C446">
@@ -6263,7 +6263,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C449">
@@ -6302,7 +6302,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C452">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C453">
@@ -6328,7 +6328,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C454">
@@ -6341,7 +6341,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C455">
@@ -6354,7 +6354,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C456">
@@ -6367,7 +6367,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C457">
@@ -6393,7 +6393,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C459">
@@ -6445,7 +6445,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C463">
@@ -6458,7 +6458,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C464">
@@ -6510,7 +6510,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C468">
@@ -6536,7 +6536,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C470">
@@ -6549,7 +6549,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C471">
@@ -6575,7 +6575,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C473">
@@ -6627,7 +6627,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C477">
@@ -6640,7 +6640,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C478">
@@ -6679,7 +6679,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C481">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C485">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C486">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C489">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C492">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C494">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C506">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C514">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C519">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C520">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C521">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C524">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C529">
@@ -7321,7 +7321,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C530">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C542">
@@ -7490,7 +7490,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C543">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C545">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C546">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C548">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C550">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C551">
@@ -7607,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C552">
@@ -7640,13 +7640,13 @@
         <v>13</v>
       </c>
       <c r="D554">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C555">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C556">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C562">
@@ -7750,14 +7750,14 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C563">
         <v>13</v>
       </c>
       <c r="D563">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="564">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C565">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C566">
@@ -7906,7 +7906,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C575">
@@ -7919,7 +7919,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C576">
@@ -7932,7 +7932,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C577">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C582">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C583">
@@ -8049,7 +8049,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C586">
@@ -8062,7 +8062,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C587">
@@ -8379,7 +8379,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C611">
@@ -8405,7 +8405,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C613">
@@ -8815,7 +8815,7 @@
         <v>13</v>
       </c>
       <c r="D644">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="645">
@@ -9224,7 +9224,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C676">
@@ -9541,7 +9541,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C700">
@@ -9658,7 +9658,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C709">
@@ -9723,7 +9723,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C714">
@@ -9749,7 +9749,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C716">
@@ -9884,7 +9884,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C726">
@@ -9923,7 +9923,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C729">
@@ -9982,7 +9982,7 @@
         <v>13</v>
       </c>
       <c r="D733">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="734">
@@ -10014,7 +10014,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C736">
@@ -10227,7 +10227,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C752">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C756">
@@ -10310,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C758">
@@ -10362,7 +10362,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C762">
@@ -10388,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C764">
@@ -10401,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C765">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C767">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C768">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C769">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C770">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C772">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C773">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C777">
@@ -10583,7 +10583,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C779">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C780">
@@ -10622,7 +10622,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C782">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C783">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C784">
@@ -10700,7 +10700,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C788">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C797">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C803">
@@ -10915,7 +10915,7 @@
         <v>13</v>
       </c>
       <c r="D804">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="805">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C811">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C846">
@@ -11584,7 +11584,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C856">
@@ -11695,7 +11695,7 @@
         <v>13</v>
       </c>
       <c r="D864">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="865">
@@ -11981,7 +11981,7 @@
         <v>13</v>
       </c>
       <c r="D886">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="887">
@@ -12169,7 +12169,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C901">
@@ -12182,7 +12182,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C902">
@@ -12195,7 +12195,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C903">
@@ -12208,7 +12208,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C904">
@@ -12221,7 +12221,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C905">
@@ -12247,7 +12247,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C907">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C908">
@@ -12299,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C911">
@@ -12473,7 +12473,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C924">
@@ -12512,7 +12512,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C927">
@@ -12681,7 +12681,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C940">
@@ -12759,7 +12759,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C946">
@@ -12798,7 +12798,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C949">
@@ -12837,7 +12837,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C952">
@@ -12954,7 +12954,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C961">
@@ -13006,7 +13006,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C965">
@@ -13136,7 +13136,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C975">
@@ -13149,7 +13149,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C976">
@@ -13201,7 +13201,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C980">
@@ -13266,7 +13266,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C985">
@@ -13305,7 +13305,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C988">
@@ -13370,7 +13370,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C993">
@@ -13635,7 +13635,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1013">
@@ -13661,7 +13661,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1015">
@@ -13713,7 +13713,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1019">
@@ -13739,7 +13739,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1021">
@@ -13759,7 +13759,7 @@
         <v>13</v>
       </c>
       <c r="D1022">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="1023">
@@ -13778,7 +13778,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1024">
@@ -13879,7 +13879,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1031">
@@ -13912,7 +13912,7 @@
         <v>13</v>
       </c>
       <c r="D1033">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="1034">
@@ -13983,7 +13983,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1039">
@@ -14035,7 +14035,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1043">
@@ -14074,7 +14074,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1046">
@@ -14100,7 +14100,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1048">
@@ -14139,7 +14139,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1051">
@@ -14152,7 +14152,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1052">
@@ -14216,7 +14216,7 @@
         <v>13</v>
       </c>
       <c r="D1056">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="1057">
@@ -14585,7 +14585,7 @@
         <v>13</v>
       </c>
       <c r="D1084">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="1085">
@@ -14981,7 +14981,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1115">
@@ -15176,7 +15176,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1130">
@@ -15189,7 +15189,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1131">
@@ -15235,7 +15235,7 @@
         <v>13</v>
       </c>
       <c r="D1134">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="1135">
@@ -15711,7 +15711,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1170">
@@ -15750,7 +15750,7 @@
     <row r="1173">
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1173">
@@ -15789,7 +15789,7 @@
     <row r="1176">
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1176">
@@ -15880,7 +15880,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1183">
@@ -15976,7 +15976,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1190">
@@ -16054,7 +16054,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1196">
@@ -16080,7 +16080,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1198">
@@ -16132,7 +16132,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1202">
@@ -16249,7 +16249,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1211">
@@ -16366,7 +16366,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1220">
@@ -16379,7 +16379,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1221">
@@ -16418,7 +16418,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1224">
@@ -16431,7 +16431,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1225">
@@ -16509,7 +16509,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1231">
@@ -16548,7 +16548,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1234">
@@ -16574,7 +16574,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1236">
@@ -16613,7 +16613,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1239">
@@ -16743,7 +16743,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1249">
@@ -16795,7 +16795,7 @@
     <row r="1253">
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1253">
@@ -16847,7 +16847,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1257">
@@ -16938,7 +16938,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1264">
@@ -17481,7 +17481,7 @@
     <row r="1305">
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1305">
@@ -17520,7 +17520,7 @@
     <row r="1308">
       <c r="B1308" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1308">
@@ -17637,7 +17637,7 @@
     <row r="1317">
       <c r="B1317" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1317">
@@ -17689,7 +17689,7 @@
     <row r="1321">
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1321">
@@ -17741,7 +17741,7 @@
     <row r="1325">
       <c r="B1325" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1325">
@@ -17754,20 +17754,20 @@
     <row r="1326">
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1326">
         <v>13</v>
       </c>
       <c r="D1326">
-        <v>0.0009418242411070057</v>
+        <v>0.0009418242411070056</v>
       </c>
     </row>
     <row r="1327">
       <c r="B1327" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1327">
@@ -17910,7 +17910,7 @@
     <row r="1338">
       <c r="B1338" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1338">
@@ -17923,7 +17923,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1339">
@@ -17962,7 +17962,7 @@
     <row r="1342">
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1342">
@@ -18035,41 +18035,6 @@
       </c>
       <c r="D1347">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
